--- a/biology/Histoire de la zoologie et de la botanique/Graebn/Graebn..xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Graebn/Graebn..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karl Otto Peter Paul Graebner, né le 29 juin 1871 à Aplerbeck et mort le 6 février 1933 à Berlin, est un botaniste allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il commence ses études à l'école d'horticulture de Potsdam, et devient jardinier au jardin botanique de Schöneberg (Berlin), où Paul Ascherson remarque le jeune homme. Il herborise avec lui dans les années 1890 dans le pays de Jerichow et dans le Vorharz. Ascherson le prend comme assistant au jardin botanique de Schöneberg, puis Paul Graebner poursuit des études de botanique jusqu'au titre de docteur en philosophie. Plus tard, il publiera avec Paul Ascherson son ouvrage de référence sur la flore d'Europe centrale Synopsis der mitteleuropäischen Flora (Leipzig, 1896-1910).
 Paul Graebner est nommé professeur au jardin botanique de Berlin et au musée botanique de Berlin, se consacrant à des travaux essentiellement sur la phytogéographie d'Allemagne et en particulier d'Allemagne centrale. Paul Graebner est l'auteur, le coauteur et l'éditeur de nombreux travaux et manuels.
@@ -544,7 +558,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lehrbuch der ökologischen Pflanzengeographie (1918, 3. Auflage),
  Taschenbuch zum Pflanzenbestimmen (1918, 10. Auflage 1924),
